--- a/biology/Médecine/Carisoprodol/Carisoprodol.xlsx
+++ b/biology/Médecine/Carisoprodol/Carisoprodol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le carisoprodol, est vendu entre autres sous la marque Soma[2].
+Le carisoprodol, est vendu entre autres sous la marque Soma.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé contre les douleurs musculo-squelettiques[2]. L’utilisation n’est approuvée que pour une durée maximale de trois semaines[2]. Les effets commencent généralement dans la demi-heure et durent jusqu'à six heures[2]. Il est pris par voie orale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé contre les douleurs musculo-squelettiques. L’utilisation n’est approuvée que pour une durée maximale de trois semaines. Les effets commencent généralement dans la demi-heure et durent jusqu'à six heures. Il est pris par voie orale.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent des maux de tête, des étourdissements et de la somnolence; les effets secondaires graves peuvent inclure une dépendance, des réactions allergiques et des convulsions. Chez les personnes allergiques aux sulfamides, certaines formulations peuvent entraîner des problèmes. La sécurité pendant la grossesse et l’allaitement n’est pas claire. La façon dont cela fonctionne n’est pas claire. On pense que certains de ses effets se produisent après avoir été convertis en méprobamate[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent des maux de tête, des étourdissements et de la somnolence; les effets secondaires graves peuvent inclure une dépendance, des réactions allergiques et des convulsions. Chez les personnes allergiques aux sulfamides, certaines formulations peuvent entraîner des problèmes. La sécurité pendant la grossesse et l’allaitement n’est pas claire. La façon dont cela fonctionne n’est pas claire. On pense que certains de ses effets se produisent après avoir été convertis en méprobamate,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'usage médical du carisoprodol a été approuvé aux États-Unis en 1959[2]. Son approbation en Europe a été retirée en 2008[4]. Il est disponible sous forme de médicament générique[2]. Aux États-Unis, le coût de gros est inférieur à 0,10 dollar américain par dose[5]. En 2017, il s'agissait du 255e médicament le plus prescrit aux États-Unis, avec plus d'un million d'ordonnances[6],[7]. Aux États-Unis, il s’agit d’une substance contrôlée de l’annexe IV[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'usage médical du carisoprodol a été approuvé aux États-Unis en 1959. Son approbation en Europe a été retirée en 2008. Il est disponible sous forme de médicament générique. Aux États-Unis, le coût de gros est inférieur à 0,10 dollar américain par dose. En 2017, il s'agissait du 255e médicament le plus prescrit aux États-Unis, avec plus d'un million d'ordonnances,. Aux États-Unis, il s’agit d’une substance contrôlée de l’annexe IV.
 </t>
         </is>
       </c>
